--- a/src/main/resources/report_templates/ExcelNhapKhoChoSanXuat_XEPK.xlsx
+++ b/src/main/resources/report_templates/ExcelNhapKhoChoSanXuat_XEPK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\MeuPro\MeUVipPro\src\main\resources\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE59822-C0C1-4EE9-B418-B54A7F3AA055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB7EA14-FCAB-4B61-9997-ECC399012267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{500951B5-36AD-476A-924D-15E739ABB651}">
+    <comment ref="S5" authorId="0" shapeId="0" xr:uid="{500951B5-36AD-476A-924D-15E739ABB651}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0" shapeId="0" xr:uid="{E702B8D1-3DAC-4CB1-9B52-E887B6E2ABDD}">
+    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{E702B8D1-3DAC-4CB1-9B52-E887B6E2ABDD}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0" xr:uid="{2FFB3B58-05CF-460D-AE7C-7651A5DB8135}">
+    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{2FFB3B58-05CF-460D-AE7C-7651A5DB8135}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{8108C992-B201-48D6-B77D-78C4150B4867}">
+    <comment ref="S8" authorId="0" shapeId="0" xr:uid="{8108C992-B201-48D6-B77D-78C4150B4867}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{31CA5816-2963-40B6-9C79-2A5210238A33}">
+    <comment ref="S9" authorId="0" shapeId="0" xr:uid="{31CA5816-2963-40B6-9C79-2A5210238A33}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
   <si>
     <t>1. KHO HÀNG CHỜ SẢN XUẤT: Bao gồm các trường sau</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>Giá bán R1</t>
-  </si>
-  <si>
-    <t>Xe nâng</t>
   </si>
 </sst>
 </file>
@@ -786,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -797,36 +794,35 @@
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.88671875" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="22.44140625" customWidth="1"/>
-    <col min="16" max="21" width="8.6640625" customWidth="1"/>
-    <col min="22" max="22" width="19.88671875" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" customWidth="1"/>
-    <col min="25" max="25" width="14.5546875" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -847,9 +843,8 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -875,9 +870,8 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -888,76 +882,73 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="T3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
@@ -968,49 +959,49 @@
         <v>45570</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="13">
+      <c r="G4" s="13">
         <v>1500</v>
       </c>
+      <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="M4" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="N4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="P4" s="13">
         <v>3</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="T4" s="13">
+        <v>12000</v>
       </c>
       <c r="U4" s="13">
         <v>12000</v>
@@ -1018,16 +1009,13 @@
       <c r="V4" s="13">
         <v>12000</v>
       </c>
-      <c r="W4" s="13">
-        <v>12000</v>
-      </c>
-      <c r="X4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>52</v>
       </c>
+      <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
     </row>
-    <row r="5" spans="1:26" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -1038,47 +1026,47 @@
         <v>45571</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="13">
+      <c r="G5" s="13">
         <v>1500</v>
       </c>
+      <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="M5" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="N5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="R5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="S5" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="T5" s="13">
+        <v>12000</v>
       </c>
       <c r="U5" s="13">
         <v>12000</v>
@@ -1086,16 +1074,13 @@
       <c r="V5" s="13">
         <v>12000</v>
       </c>
-      <c r="W5" s="13">
-        <v>12000</v>
-      </c>
-      <c r="X5" s="13" t="s">
+      <c r="W5" s="13" t="s">
         <v>53</v>
       </c>
+      <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
     </row>
-    <row r="6" spans="1:26" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>38</v>
       </c>
@@ -1106,47 +1091,47 @@
         <v>45572</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="13">
+      <c r="G6" s="13">
         <v>1500</v>
       </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="M6" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="N6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13" t="s">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="R6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="T6" s="13">
+        <v>12000</v>
       </c>
       <c r="U6" s="13">
         <v>12000</v>
@@ -1154,16 +1139,13 @@
       <c r="V6" s="13">
         <v>12000</v>
       </c>
-      <c r="W6" s="13">
-        <v>12000</v>
-      </c>
-      <c r="X6" s="13" t="s">
+      <c r="W6" s="13" t="s">
         <v>58</v>
       </c>
+      <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
     </row>
-    <row r="7" spans="1:26" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -1174,47 +1156,47 @@
         <v>45573</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="13">
+      <c r="G7" s="13">
         <v>1500</v>
       </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="M7" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="N7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13" t="s">
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="R7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="S7" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="T7" s="13">
+        <v>12000</v>
       </c>
       <c r="U7" s="13">
         <v>12000</v>
@@ -1222,16 +1204,13 @@
       <c r="V7" s="13">
         <v>12000</v>
       </c>
-      <c r="W7" s="13">
-        <v>12000</v>
-      </c>
-      <c r="X7" s="13" t="s">
+      <c r="W7" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
     </row>
-    <row r="8" spans="1:26" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -1242,47 +1221,47 @@
         <v>45574</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="13">
+      <c r="G8" s="13">
         <v>1500</v>
       </c>
+      <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="L8" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="M8" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="N8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13" t="s">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="R8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="S8" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="T8" s="13">
+        <v>12000</v>
       </c>
       <c r="U8" s="13">
         <v>12000</v>
@@ -1290,16 +1269,13 @@
       <c r="V8" s="13">
         <v>12000</v>
       </c>
-      <c r="W8" s="13">
-        <v>12000</v>
-      </c>
-      <c r="X8" s="13" t="s">
+      <c r="W8" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:26" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="17" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1310,47 +1286,47 @@
         <v>45575</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="13">
+      <c r="G9" s="13">
         <v>1500</v>
       </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="M9" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="N9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13" t="s">
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="R9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="S9" s="13" t="s">
         <v>48</v>
+      </c>
+      <c r="T9" s="13">
+        <v>12000</v>
       </c>
       <c r="U9" s="13">
         <v>12000</v>
@@ -1358,22 +1334,19 @@
       <c r="V9" s="13">
         <v>12000</v>
       </c>
-      <c r="W9" s="13">
-        <v>12000</v>
-      </c>
-      <c r="X9" s="13" t="s">
+      <c r="W9" s="13" t="s">
         <v>61</v>
       </c>
+      <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
